--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosSemillero\automatizacion2\HacebJDZ\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA802EC-8526-448E-97C2-F6DB04DFEB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88109E-32BC-448D-94E4-3D292E055D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>9686986</t>
   </si>
   <si>
-    <t>haceabjuan3@yopmail.com</t>
+    <t>haceabjuan8@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -503,7 +503,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6C0C6516-70E6-4C4D-B742-951015FF99D8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{313D13D0-6495-4616-B174-6CD232995C7A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosSemillero\automatizacion2\HacebJDZ\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88109E-32BC-448D-94E4-3D292E055D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E2A99-D634-460D-A257-EBD4EDABAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>9686986</t>
   </si>
   <si>
-    <t>haceabjuan8@yopmail.com</t>
+    <t>haceabjuan15@yopmail.com</t>
   </si>
 </sst>
 </file>
